--- a/Leaderboard_Template.xlsx
+++ b/Leaderboard_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45210" yWindow="3690" windowWidth="25845" windowHeight="17190"/>
+    <workbookView xWindow="45210" yWindow="3690" windowWidth="25845" windowHeight="17190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -11345,7 +11345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>

--- a/Leaderboard_Template.xlsx
+++ b/Leaderboard_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45210" yWindow="3690" windowWidth="25845" windowHeight="17190" activeTab="2"/>
+    <workbookView xWindow="45210" yWindow="3690" windowWidth="25845" windowHeight="17190"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1932,19 +1932,19 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-8</v>
       </c>
       <c r="J4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-14</v>
       </c>
       <c r="K4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>13</v>
       </c>
       <c r="L4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>10</v>
       </c>
       <c r="M4" s="5">
@@ -1976,19 +1976,19 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-3</v>
       </c>
       <c r="J5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-4</v>
       </c>
       <c r="K5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>19</v>
       </c>
       <c r="L5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>9</v>
       </c>
       <c r="M5" s="5">
@@ -2020,19 +2020,19 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>5</v>
       </c>
       <c r="K6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>20</v>
       </c>
       <c r="L6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>22</v>
       </c>
       <c r="M6" s="5">
@@ -2064,19 +2064,19 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="5">
-        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-6</v>
       </c>
       <c r="J7" s="5">
-        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-6</v>
       </c>
       <c r="K7" s="5">
-        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>7</v>
       </c>
       <c r="L7" s="5">
-        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>-1</v>
       </c>
       <c r="M7" s="5">
@@ -2108,19 +2108,19 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5">
-        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-10</v>
       </c>
       <c r="J8" s="5">
-        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-9</v>
       </c>
       <c r="K8" s="5">
-        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>8</v>
       </c>
       <c r="L8" s="5">
-        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>-3</v>
       </c>
       <c r="M8" s="5">
@@ -2152,19 +2152,19 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="5">
-        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>6</v>
       </c>
       <c r="K9" s="5">
-        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>26</v>
       </c>
       <c r="L9" s="5">
-        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>30</v>
       </c>
       <c r="M9" s="5">
@@ -2196,19 +2196,19 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="5">
-        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-8</v>
       </c>
       <c r="J10" s="5">
-        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-14</v>
       </c>
       <c r="K10" s="5">
-        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>6</v>
       </c>
       <c r="L10" s="5">
-        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>14</v>
       </c>
       <c r="M10" s="5">
@@ -2240,19 +2240,19 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="5">
-        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-11</v>
       </c>
       <c r="J11" s="5">
-        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-15</v>
       </c>
       <c r="K11" s="5">
-        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>-1</v>
       </c>
       <c r="L11" s="5">
-        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>-12</v>
       </c>
       <c r="M11" s="5">
@@ -2284,19 +2284,19 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="5">
-        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-6</v>
       </c>
       <c r="J12" s="5">
-        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-25</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>-11</v>
       </c>
       <c r="L12" s="5">
-        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>-9</v>
       </c>
       <c r="M12" s="5">
@@ -2328,19 +2328,19 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="5">
-        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>9</v>
       </c>
       <c r="J13" s="5">
-        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-18</v>
       </c>
       <c r="K13" s="5">
-        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>11</v>
       </c>
       <c r="L13" s="5">
-        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>14</v>
       </c>
       <c r="M13" s="5">
@@ -2372,19 +2372,19 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="5">
-        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-9</v>
       </c>
       <c r="J14" s="5">
-        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-12</v>
       </c>
       <c r="K14" s="5">
-        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>6</v>
       </c>
       <c r="M14" s="5">
@@ -2416,19 +2416,19 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="5">
-        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-2</v>
       </c>
       <c r="K15" s="5">
-        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>22</v>
       </c>
       <c r="L15" s="5">
-        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>19</v>
       </c>
       <c r="M15" s="5">
@@ -2460,19 +2460,19 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="5">
-        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-8</v>
       </c>
       <c r="J16" s="5">
-        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-4</v>
       </c>
       <c r="K16" s="5">
-        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>19</v>
       </c>
       <c r="L16" s="5">
-        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>19</v>
       </c>
       <c r="M16" s="5">
@@ -2504,19 +2504,19 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="5">
-        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>4</v>
       </c>
       <c r="J17" s="5">
-        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>4</v>
       </c>
       <c r="K17" s="5">
-        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>30</v>
       </c>
       <c r="L17" s="5">
-        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>34</v>
       </c>
       <c r="M17" s="5">
@@ -2548,19 +2548,19 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="5">
-        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-3</v>
       </c>
       <c r="J18" s="5">
-        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-9</v>
       </c>
       <c r="K18" s="5">
-        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>19</v>
       </c>
       <c r="L18" s="5">
-        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>19</v>
       </c>
       <c r="M18" s="5">
@@ -2592,19 +2592,19 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="5">
-        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-6</v>
       </c>
       <c r="K19" s="5">
-        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>21</v>
       </c>
       <c r="L19" s="5">
-        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>29</v>
       </c>
       <c r="M19" s="5">
@@ -2636,19 +2636,19 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="5">
-        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>6</v>
       </c>
       <c r="K20" s="5">
-        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>27</v>
       </c>
       <c r="L20" s="5">
-        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>32</v>
       </c>
       <c r="M20" s="5">
@@ -2680,19 +2680,19 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="5">
-        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>3</v>
       </c>
       <c r="J21" s="5">
-        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-5</v>
       </c>
       <c r="K21" s="5">
-        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>22</v>
       </c>
       <c r="L21" s="5">
-        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>21</v>
       </c>
       <c r="M21" s="5">
@@ -2724,19 +2724,19 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="5">
-        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-3</v>
       </c>
       <c r="J22" s="5">
-        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>-10</v>
       </c>
       <c r="K22" s="5">
-        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>6</v>
       </c>
       <c r="L22" s="5">
-        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>7</v>
       </c>
       <c r="M22" s="5">
@@ -2768,19 +2768,19 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="5">
-        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,I$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
         <v>-12</v>
       </c>
       <c r="J23" s="5">
-        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,J$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
         <v>10</v>
       </c>
       <c r="K23" s="5">
-        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,K$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
         <v>26</v>
       </c>
       <c r="L23" s="5">
-        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,L$1,0))-(72*6)</f>
+        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
         <v>31</v>
       </c>
       <c r="M23" s="5">
@@ -11345,7 +11345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>

--- a/Leaderboard_Template.xlsx
+++ b/Leaderboard_Template.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="45210" yWindow="3690" windowWidth="25845" windowHeight="17190"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Clean Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Raw Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Details" sheetId="4" r:id="rId4"/>
+    <sheet name="Live" sheetId="5" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Clean Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Raw Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Details" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="course_id">Details!$B$9</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="452">
   <si>
     <t>Thursday Total</t>
   </si>
@@ -1816,10 +1817,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="str">
+        <f>tname&amp;" -- "&amp;YEAR(start_date)</f>
+        <v>Valero Texas Open -- 2019</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5">
+        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5">
+        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5">
+        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5">
+        <f>SUM(VLOOKUP($B7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F7,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G7,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5">
+        <f>SUM(VLOOKUP($B8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F8,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G8,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5">
+        <f>SUM(VLOOKUP($B9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F9,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G9,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5">
+        <f>SUM(VLOOKUP($B10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F10,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G10,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5">
+        <f>SUM(VLOOKUP($B11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F11,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G11,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5">
+        <f>SUM(VLOOKUP($B12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F12,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G12,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5">
+        <f>SUM(VLOOKUP($B13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F13,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G13,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5">
+        <f>SUM(VLOOKUP($B14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F14,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G14,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5">
+        <f>SUM(VLOOKUP($B15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F15,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G15,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="5">
+        <f>SUM(VLOOKUP($B16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F16,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G16,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5">
+        <f>SUM(VLOOKUP($B17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F17,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G17,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5">
+        <f>SUM(VLOOKUP($B18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F18,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G18,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="5">
+        <f>SUM(VLOOKUP($B19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F19,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G19,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="5">
+        <f>SUM(VLOOKUP($B20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F20,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G20,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="5">
+        <f>SUM(VLOOKUP($B21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F21,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G21,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5">
+        <f>SUM(VLOOKUP($B22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F22,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G22,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5">
+        <f>SUM(VLOOKUP($B23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F23,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G23,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+        <v>-377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +3527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M157"/>
   <sheetViews>
@@ -11341,7 +12017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R145"/>
   <sheetViews>
@@ -17957,7 +18633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>

--- a/Leaderboard_Template.xlsx
+++ b/Leaderboard_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\Programming\golf_pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6329B-DAB5-4080-9BE1-F60D5EBA8DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3780" windowWidth="25845" windowHeight="17190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="3780" windowWidth="25845" windowHeight="17190"/>
   </bookViews>
   <sheets>
     <sheet name="Live" sheetId="5" r:id="rId1"/>
@@ -33,13 +32,13 @@
     <definedName name="par_total">Details!$B$13</definedName>
     <definedName name="par_value">Details!$B$3</definedName>
     <definedName name="penalty_score">Details!$B$16</definedName>
-    <definedName name="player_data">'Raw Data'!$A$1:$R$25</definedName>
+    <definedName name="player_data">'Raw Data'!$A$1:$R$157</definedName>
     <definedName name="round_state">Details!$B$8</definedName>
     <definedName name="start_date">Details!$B$3</definedName>
     <definedName name="tid">Details!$B$1</definedName>
     <definedName name="tname">Details!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -375,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+#0_);[Red]\-#0"/>
   </numFmts>
@@ -779,10 +778,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1165,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1298,7 +1297,7 @@
         <v>-235</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M23" si="0">+SUM(I4:L4)</f>
+        <f t="shared" ref="M4:M6" si="0">+SUM(I4:L4)</f>
         <v>-271</v>
       </c>
     </row>
@@ -1709,11 +1708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,35 +1774,35 @@
         <v>C. Conners</v>
       </c>
       <c r="B2" t="str">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C33" si="0">J2-(par_total*4)</f>
+        <f t="shared" ref="C2:C4" si="0">J2-(par_total*4)</f>
         <v>-20</v>
       </c>
       <c r="D2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>18</v>
       </c>
       <c r="E2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>-6</v>
       </c>
       <c r="F2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>69</v>
       </c>
       <c r="G2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>67</v>
       </c>
       <c r="H2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>66</v>
       </c>
       <c r="I2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>66</v>
       </c>
       <c r="J2">
@@ -1811,15 +1810,15 @@
         <v>268</v>
       </c>
       <c r="K2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>4</v>
       </c>
       <c r="L2" t="str">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>active</v>
       </c>
       <c r="M2">
-        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A2,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>18</v>
       </c>
     </row>
@@ -1829,7 +1828,7 @@
         <v>C. Hoffman</v>
       </c>
       <c r="B3" t="str">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>2</v>
       </c>
       <c r="C3">
@@ -1837,43 +1836,43 @@
         <v>-18</v>
       </c>
       <c r="D3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>18</v>
       </c>
       <c r="E3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>-5</v>
       </c>
       <c r="F3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>71</v>
       </c>
       <c r="G3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>68</v>
       </c>
       <c r="H3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>64</v>
       </c>
       <c r="I3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>67</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">SUM(F3:I3)</f>
+        <f t="shared" ref="J3:J4" si="1">SUM(F3:I3)</f>
         <v>270</v>
       </c>
       <c r="K3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>4</v>
       </c>
       <c r="L3" t="str">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>active</v>
       </c>
       <c r="M3">
-        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A3,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>18</v>
       </c>
     </row>
@@ -1883,7 +1882,7 @@
         <v>R. Moore</v>
       </c>
       <c r="B4" t="str">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>3</v>
       </c>
       <c r="C4">
@@ -1891,27 +1890,27 @@
         <v>-17</v>
       </c>
       <c r="D4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>18</v>
       </c>
       <c r="E4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>-8</v>
       </c>
       <c r="F4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>68</v>
       </c>
       <c r="G4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>70</v>
       </c>
       <c r="H4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>69</v>
       </c>
       <c r="I4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>64</v>
       </c>
       <c r="J4">
@@ -1919,15 +1918,15 @@
         <v>271</v>
       </c>
       <c r="K4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>4</v>
       </c>
       <c r="L4" t="str">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>active</v>
       </c>
       <c r="M4">
-        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A4,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>18</v>
       </c>
     </row>
@@ -1937,7 +1936,7 @@
         <v>H. Mahan</v>
       </c>
       <c r="B5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -1945,27 +1944,27 @@
         <v>-72</v>
       </c>
       <c r="D5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>70</v>
       </c>
       <c r="G5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>71</v>
       </c>
       <c r="H5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>75</v>
       </c>
       <c r="I5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J5">
@@ -1973,15 +1972,15 @@
         <v>216</v>
       </c>
       <c r="K5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>mdf</v>
       </c>
       <c r="M5">
-        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A5,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -1991,7 +1990,7 @@
         <v>J. Holmes</v>
       </c>
       <c r="B6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -1999,27 +1998,27 @@
         <v>-72</v>
       </c>
       <c r="D6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>69</v>
       </c>
       <c r="G6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>73</v>
       </c>
       <c r="H6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>74</v>
       </c>
       <c r="I6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J6">
@@ -2027,15 +2026,15 @@
         <v>216</v>
       </c>
       <c r="K6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L6" t="str">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>mdf</v>
       </c>
       <c r="M6">
-        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A6,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2045,7 +2044,7 @@
         <v>P. Harrington</v>
       </c>
       <c r="B7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -2053,27 +2052,27 @@
         <v>-72</v>
       </c>
       <c r="D7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>72</v>
       </c>
       <c r="G7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>71</v>
       </c>
       <c r="H7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>73</v>
       </c>
       <c r="I7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J7">
@@ -2081,15 +2080,15 @@
         <v>216</v>
       </c>
       <c r="K7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>mdf</v>
       </c>
       <c r="M7">
-        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A7,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2099,7 +2098,7 @@
         <v>B. Cauley</v>
       </c>
       <c r="B8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -2107,27 +2106,27 @@
         <v>-144</v>
       </c>
       <c r="D8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>72</v>
       </c>
       <c r="G8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>72</v>
       </c>
       <c r="H8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J8">
@@ -2135,15 +2134,15 @@
         <v>144</v>
       </c>
       <c r="K8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L8" t="str">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>cut</v>
       </c>
       <c r="M8">
-        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A8,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2152,7 @@
         <v>C. Kirk</v>
       </c>
       <c r="B9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -2161,27 +2160,27 @@
         <v>-144</v>
       </c>
       <c r="D9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>74</v>
       </c>
       <c r="G9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>70</v>
       </c>
       <c r="H9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J9">
@@ -2189,15 +2188,15 @@
         <v>144</v>
       </c>
       <c r="K9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L9" t="str">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>cut</v>
       </c>
       <c r="M9">
-        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A9,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2206,7 @@
         <v>N. Watney</v>
       </c>
       <c r="B10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C10">
@@ -2215,27 +2214,27 @@
         <v>-144</v>
       </c>
       <c r="D10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>75</v>
       </c>
       <c r="G10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>69</v>
       </c>
       <c r="H10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J10">
@@ -2243,15 +2242,15 @@
         <v>144</v>
       </c>
       <c r="K10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L10" t="str">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>cut</v>
       </c>
       <c r="M10">
-        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A10,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2261,7 +2260,7 @@
         <v>J. Etulain</v>
       </c>
       <c r="B11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C11">
@@ -2269,27 +2268,27 @@
         <v>-164</v>
       </c>
       <c r="D11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>70</v>
       </c>
       <c r="G11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>54</v>
       </c>
       <c r="H11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J11">
@@ -2297,15 +2296,15 @@
         <v>124</v>
       </c>
       <c r="K11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L11" t="str">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>wd</v>
       </c>
       <c r="M11">
-        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A11,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>4</v>
       </c>
     </row>
@@ -2315,7 +2314,7 @@
         <v>D. Points</v>
       </c>
       <c r="B12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -2323,27 +2322,27 @@
         <v>-210</v>
       </c>
       <c r="D12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>78</v>
       </c>
       <c r="G12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J12">
@@ -2351,15 +2350,15 @@
         <v>78</v>
       </c>
       <c r="K12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>wd</v>
       </c>
       <c r="M12">
-        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A12,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2368,7 @@
         <v>G. Murray</v>
       </c>
       <c r="B13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="C13">
@@ -2377,27 +2376,27 @@
         <v>-253</v>
       </c>
       <c r="D13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>35</v>
       </c>
       <c r="G13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="J13">
@@ -2405,15 +2404,15 @@
         <v>35</v>
       </c>
       <c r="K13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>wd</v>
       </c>
       <c r="M13">
-        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A13,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>9</v>
       </c>
     </row>
@@ -2423,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C14" t="e">
@@ -2431,27 +2430,27 @@
         <v>#N/A</v>
       </c>
       <c r="D14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J14" t="e">
@@ -2459,15 +2458,15 @@
         <v>#N/A</v>
       </c>
       <c r="K14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M14" t="e">
-        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A14,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2477,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C15" t="e">
@@ -2485,27 +2484,27 @@
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J15" t="e">
@@ -2513,15 +2512,15 @@
         <v>#N/A</v>
       </c>
       <c r="K15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M15" t="e">
-        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A15,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2531,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C16" t="e">
@@ -2539,27 +2538,27 @@
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J16" t="e">
@@ -2567,15 +2566,15 @@
         <v>#N/A</v>
       </c>
       <c r="K16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M16" t="e">
-        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A16,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2585,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C17" t="e">
@@ -2593,27 +2592,27 @@
         <v>#N/A</v>
       </c>
       <c r="D17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J17" t="e">
@@ -2621,15 +2620,15 @@
         <v>#N/A</v>
       </c>
       <c r="K17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M17" t="e">
-        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A17,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2639,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C18" t="e">
@@ -2647,27 +2646,27 @@
         <v>#N/A</v>
       </c>
       <c r="D18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J18" t="e">
@@ -2675,15 +2674,15 @@
         <v>#N/A</v>
       </c>
       <c r="K18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="e">
-        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A18,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2693,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C19" t="e">
@@ -2701,27 +2700,27 @@
         <v>#N/A</v>
       </c>
       <c r="D19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J19" t="e">
@@ -2729,15 +2728,15 @@
         <v>#N/A</v>
       </c>
       <c r="K19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M19" t="e">
-        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A19,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2747,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C20" t="e">
@@ -2755,27 +2754,27 @@
         <v>#N/A</v>
       </c>
       <c r="D20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J20" t="e">
@@ -2783,15 +2782,15 @@
         <v>#N/A</v>
       </c>
       <c r="K20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M20" t="e">
-        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A20,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2801,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C21" t="e">
@@ -2809,27 +2808,27 @@
         <v>#N/A</v>
       </c>
       <c r="D21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J21" t="e">
@@ -2837,15 +2836,15 @@
         <v>#N/A</v>
       </c>
       <c r="K21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M21" t="e">
-        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A21,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2855,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C22" t="e">
@@ -2863,27 +2862,27 @@
         <v>#N/A</v>
       </c>
       <c r="D22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J22" t="e">
@@ -2891,15 +2890,15 @@
         <v>#N/A</v>
       </c>
       <c r="K22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M22" t="e">
-        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A22,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2909,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C23" t="e">
@@ -2917,27 +2916,27 @@
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J23" t="e">
@@ -2945,15 +2944,15 @@
         <v>#N/A</v>
       </c>
       <c r="K23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M23" t="e">
-        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A23,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2963,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C24" t="e">
@@ -2971,27 +2970,27 @@
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J24" t="e">
@@ -2999,15 +2998,15 @@
         <v>#N/A</v>
       </c>
       <c r="K24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M24" t="e">
-        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A24,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3017,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C25" t="e">
@@ -3025,27 +3024,27 @@
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J25" t="e">
@@ -3053,15 +3052,15 @@
         <v>#N/A</v>
       </c>
       <c r="K25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M25" t="e">
-        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A25,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3071,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C26" t="e">
@@ -3079,27 +3078,27 @@
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J26" t="e">
@@ -3107,15 +3106,15 @@
         <v>#N/A</v>
       </c>
       <c r="K26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M26" t="e">
-        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A26,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3125,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C27" t="e">
@@ -3133,27 +3132,27 @@
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J27" t="e">
@@ -3161,15 +3160,15 @@
         <v>#N/A</v>
       </c>
       <c r="K27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M27" t="e">
-        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A27,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3179,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C28" t="e">
@@ -3187,27 +3186,27 @@
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J28" t="e">
@@ -3215,15 +3214,15 @@
         <v>#N/A</v>
       </c>
       <c r="K28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M28" t="e">
-        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A28,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3233,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C29" t="e">
@@ -3241,27 +3240,27 @@
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J29" t="e">
@@ -3269,15 +3268,15 @@
         <v>#N/A</v>
       </c>
       <c r="K29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="e">
-        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A29,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3287,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C30" t="e">
@@ -3295,27 +3294,27 @@
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J30" t="e">
@@ -3323,15 +3322,15 @@
         <v>#N/A</v>
       </c>
       <c r="K30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M30" t="e">
-        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A30,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3341,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C31" t="e">
@@ -3349,27 +3348,27 @@
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J31" t="e">
@@ -3377,15 +3376,15 @@
         <v>#N/A</v>
       </c>
       <c r="K31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M31" t="e">
-        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A31,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3395,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C32" t="e">
@@ -3403,27 +3402,27 @@
         <v>#N/A</v>
       </c>
       <c r="D32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J32" t="e">
@@ -3431,15 +3430,15 @@
         <v>#N/A</v>
       </c>
       <c r="K32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M32" t="e">
-        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A32,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3449,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C33" t="e">
@@ -3457,27 +3456,27 @@
         <v>#N/A</v>
       </c>
       <c r="D33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J33" t="e">
@@ -3485,15 +3484,15 @@
         <v>#N/A</v>
       </c>
       <c r="K33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M33" t="e">
-        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A33,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3503,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C34" t="e">
@@ -3511,27 +3510,27 @@
         <v>#N/A</v>
       </c>
       <c r="D34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J34" t="e">
@@ -3539,15 +3538,15 @@
         <v>#N/A</v>
       </c>
       <c r="K34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M34" t="e">
-        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A34,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3557,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C35" t="e">
@@ -3565,27 +3564,27 @@
         <v>#N/A</v>
       </c>
       <c r="D35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J35" t="e">
@@ -3593,15 +3592,15 @@
         <v>#N/A</v>
       </c>
       <c r="K35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M35" t="e">
-        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A35,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3611,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C36" t="e">
@@ -3619,27 +3618,27 @@
         <v>#N/A</v>
       </c>
       <c r="D36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J36" t="e">
@@ -3647,15 +3646,15 @@
         <v>#N/A</v>
       </c>
       <c r="K36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M36" t="e">
-        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A36,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3665,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C37" t="e">
@@ -3673,27 +3672,27 @@
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J37" t="e">
@@ -3701,15 +3700,15 @@
         <v>#N/A</v>
       </c>
       <c r="K37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M37" t="e">
-        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A37,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3719,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C38" t="e">
@@ -3727,27 +3726,27 @@
         <v>#N/A</v>
       </c>
       <c r="D38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J38" t="e">
@@ -3755,15 +3754,15 @@
         <v>#N/A</v>
       </c>
       <c r="K38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M38" t="e">
-        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A38,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3773,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C39" t="e">
@@ -3781,27 +3780,27 @@
         <v>#N/A</v>
       </c>
       <c r="D39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J39" t="e">
@@ -3809,15 +3808,15 @@
         <v>#N/A</v>
       </c>
       <c r="K39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M39" t="e">
-        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A39,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3827,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C40" t="e">
@@ -3835,27 +3834,27 @@
         <v>#N/A</v>
       </c>
       <c r="D40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J40" t="e">
@@ -3863,15 +3862,15 @@
         <v>#N/A</v>
       </c>
       <c r="K40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M40" t="e">
-        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A40,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3881,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C41" t="e">
@@ -3889,27 +3888,27 @@
         <v>#N/A</v>
       </c>
       <c r="D41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J41" t="e">
@@ -3917,15 +3916,15 @@
         <v>#N/A</v>
       </c>
       <c r="K41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M41" t="e">
-        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A41,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3935,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C42" t="e">
@@ -3943,27 +3942,27 @@
         <v>#N/A</v>
       </c>
       <c r="D42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J42" t="e">
@@ -3971,15 +3970,15 @@
         <v>#N/A</v>
       </c>
       <c r="K42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M42" t="e">
-        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A42,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3989,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C43" t="e">
@@ -3997,27 +3996,27 @@
         <v>#N/A</v>
       </c>
       <c r="D43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J43" t="e">
@@ -4025,15 +4024,15 @@
         <v>#N/A</v>
       </c>
       <c r="K43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M43" t="e">
-        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A43,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4043,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C44" t="e">
@@ -4051,27 +4050,27 @@
         <v>#N/A</v>
       </c>
       <c r="D44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J44" t="e">
@@ -4079,15 +4078,15 @@
         <v>#N/A</v>
       </c>
       <c r="K44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M44" t="e">
-        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A44,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4097,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C45" t="e">
@@ -4105,27 +4104,27 @@
         <v>#N/A</v>
       </c>
       <c r="D45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J45" t="e">
@@ -4133,15 +4132,15 @@
         <v>#N/A</v>
       </c>
       <c r="K45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M45" t="e">
-        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A45,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4151,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C46" t="e">
@@ -4159,27 +4158,27 @@
         <v>#N/A</v>
       </c>
       <c r="D46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J46" t="e">
@@ -4187,15 +4186,15 @@
         <v>#N/A</v>
       </c>
       <c r="K46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M46" t="e">
-        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A46,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4205,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C47" t="e">
@@ -4213,27 +4212,27 @@
         <v>#N/A</v>
       </c>
       <c r="D47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J47" t="e">
@@ -4241,15 +4240,15 @@
         <v>#N/A</v>
       </c>
       <c r="K47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M47" t="e">
-        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A47,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4259,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C48" t="e">
@@ -4267,27 +4266,27 @@
         <v>#N/A</v>
       </c>
       <c r="D48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J48" t="e">
@@ -4295,15 +4294,15 @@
         <v>#N/A</v>
       </c>
       <c r="K48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M48" t="e">
-        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A48,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4313,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C49" t="e">
@@ -4321,27 +4320,27 @@
         <v>#N/A</v>
       </c>
       <c r="D49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J49" t="e">
@@ -4349,15 +4348,15 @@
         <v>#N/A</v>
       </c>
       <c r="K49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M49" t="e">
-        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A49,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4367,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C50" t="e">
@@ -4375,27 +4374,27 @@
         <v>#N/A</v>
       </c>
       <c r="D50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J50" t="e">
@@ -4403,15 +4402,15 @@
         <v>#N/A</v>
       </c>
       <c r="K50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M50" t="e">
-        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A50,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4421,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C51" t="e">
@@ -4429,27 +4428,27 @@
         <v>#N/A</v>
       </c>
       <c r="D51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J51" t="e">
@@ -4457,15 +4456,15 @@
         <v>#N/A</v>
       </c>
       <c r="K51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M51" t="e">
-        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A51,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4475,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C52" t="e">
@@ -4483,27 +4482,27 @@
         <v>#N/A</v>
       </c>
       <c r="D52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J52" t="e">
@@ -4511,15 +4510,15 @@
         <v>#N/A</v>
       </c>
       <c r="K52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M52" t="e">
-        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A52,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4529,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C53" t="e">
@@ -4537,27 +4536,27 @@
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
@@ -4565,15 +4564,15 @@
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A53,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4583,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C54" t="e">
@@ -4591,27 +4590,27 @@
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
@@ -4619,15 +4618,15 @@
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A54,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4637,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C55" t="e">
@@ -4645,27 +4644,27 @@
         <v>#N/A</v>
       </c>
       <c r="D55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
@@ -4673,15 +4672,15 @@
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A55,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4691,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C56" t="e">
@@ -4699,27 +4698,27 @@
         <v>#N/A</v>
       </c>
       <c r="D56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
@@ -4727,15 +4726,15 @@
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A56,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4745,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C57" t="e">
@@ -4753,27 +4752,27 @@
         <v>#N/A</v>
       </c>
       <c r="D57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J57" t="e">
@@ -4781,15 +4780,15 @@
         <v>#N/A</v>
       </c>
       <c r="K57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A57,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4799,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C58" t="e">
@@ -4807,27 +4806,27 @@
         <v>#N/A</v>
       </c>
       <c r="D58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
@@ -4835,15 +4834,15 @@
         <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A58,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4853,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C59" t="e">
@@ -4861,27 +4860,27 @@
         <v>#N/A</v>
       </c>
       <c r="D59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
@@ -4889,15 +4888,15 @@
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A59,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4907,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C60" t="e">
@@ -4915,27 +4914,27 @@
         <v>#N/A</v>
       </c>
       <c r="D60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J60" t="e">
@@ -4943,15 +4942,15 @@
         <v>#N/A</v>
       </c>
       <c r="K60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A60,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4961,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C61" t="e">
@@ -4969,27 +4968,27 @@
         <v>#N/A</v>
       </c>
       <c r="D61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
@@ -4997,15 +4996,15 @@
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A61,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5015,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C62" t="e">
@@ -5023,27 +5022,27 @@
         <v>#N/A</v>
       </c>
       <c r="D62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
@@ -5051,15 +5050,15 @@
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A62,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5069,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C63" t="e">
@@ -5077,27 +5076,27 @@
         <v>#N/A</v>
       </c>
       <c r="D63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
@@ -5105,15 +5104,15 @@
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A63,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5123,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C64" t="e">
@@ -5131,27 +5130,27 @@
         <v>#N/A</v>
       </c>
       <c r="D64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
@@ -5159,15 +5158,15 @@
         <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A64,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5177,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C65" t="e">
@@ -5185,27 +5184,27 @@
         <v>#N/A</v>
       </c>
       <c r="D65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
@@ -5213,15 +5212,15 @@
         <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M65" t="e">
-        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A65,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5231,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C66" t="e">
@@ -5239,27 +5238,27 @@
         <v>#N/A</v>
       </c>
       <c r="D66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
@@ -5267,15 +5266,15 @@
         <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M66" t="e">
-        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A66,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5285,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C67" t="e">
@@ -5293,27 +5292,27 @@
         <v>#N/A</v>
       </c>
       <c r="D67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
@@ -5321,15 +5320,15 @@
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A67,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5339,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C68" t="e">
@@ -5347,27 +5346,27 @@
         <v>#N/A</v>
       </c>
       <c r="D68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
@@ -5375,15 +5374,15 @@
         <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A68,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5393,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C69" t="e">
@@ -5401,27 +5400,27 @@
         <v>#N/A</v>
       </c>
       <c r="D69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
@@ -5429,15 +5428,15 @@
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A69,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5447,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C70" t="e">
@@ -5455,27 +5454,27 @@
         <v>#N/A</v>
       </c>
       <c r="D70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
@@ -5483,15 +5482,15 @@
         <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M70" t="e">
-        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A70,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5501,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C71" t="e">
@@ -5509,27 +5508,27 @@
         <v>#N/A</v>
       </c>
       <c r="D71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
@@ -5537,15 +5536,15 @@
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A71,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5555,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C72" t="e">
@@ -5563,27 +5562,27 @@
         <v>#N/A</v>
       </c>
       <c r="D72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
@@ -5591,15 +5590,15 @@
         <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A72,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5609,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C73" t="e">
@@ -5617,27 +5616,27 @@
         <v>#N/A</v>
       </c>
       <c r="D73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
@@ -5645,15 +5644,15 @@
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A73,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5663,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C74" t="e">
@@ -5671,27 +5670,27 @@
         <v>#N/A</v>
       </c>
       <c r="D74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
@@ -5699,15 +5698,15 @@
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A74,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5717,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C75" t="e">
@@ -5725,27 +5724,27 @@
         <v>#N/A</v>
       </c>
       <c r="D75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
@@ -5753,15 +5752,15 @@
         <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M75" t="e">
-        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A75,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5771,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C76" t="e">
@@ -5779,27 +5778,27 @@
         <v>#N/A</v>
       </c>
       <c r="D76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
@@ -5807,15 +5806,15 @@
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A76,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5825,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C77" t="e">
@@ -5833,27 +5832,27 @@
         <v>#N/A</v>
       </c>
       <c r="D77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
@@ -5861,15 +5860,15 @@
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A77,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5879,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C78" t="e">
@@ -5887,27 +5886,27 @@
         <v>#N/A</v>
       </c>
       <c r="D78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J78" t="e">
@@ -5915,15 +5914,15 @@
         <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A78,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5933,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C79" t="e">
@@ -5941,27 +5940,27 @@
         <v>#N/A</v>
       </c>
       <c r="D79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
@@ -5969,15 +5968,15 @@
         <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A79,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5987,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C80" t="e">
@@ -5995,27 +5994,27 @@
         <v>#N/A</v>
       </c>
       <c r="D80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J80" t="e">
@@ -6023,15 +6022,15 @@
         <v>#N/A</v>
       </c>
       <c r="K80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A80,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6041,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C81" t="e">
@@ -6049,27 +6048,27 @@
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
@@ -6077,15 +6076,15 @@
         <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M81" t="e">
-        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A81,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6095,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C82" t="e">
@@ -6103,27 +6102,27 @@
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
@@ -6131,15 +6130,15 @@
         <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A82,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6149,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C83" t="e">
@@ -6157,27 +6156,27 @@
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
@@ -6185,15 +6184,15 @@
         <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A83,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6203,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C84" t="e">
@@ -6211,27 +6210,27 @@
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
@@ -6239,15 +6238,15 @@
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A84,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6257,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C85" t="e">
@@ -6265,27 +6264,27 @@
         <v>#N/A</v>
       </c>
       <c r="D85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
@@ -6293,15 +6292,15 @@
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A85,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6311,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C86" t="e">
@@ -6319,27 +6318,27 @@
         <v>#N/A</v>
       </c>
       <c r="D86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J86" t="e">
@@ -6347,15 +6346,15 @@
         <v>#N/A</v>
       </c>
       <c r="K86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A86,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6365,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C87" t="e">
@@ -6373,27 +6372,27 @@
         <v>#N/A</v>
       </c>
       <c r="D87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J87" t="e">
@@ -6401,15 +6400,15 @@
         <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A87,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6419,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C88" t="e">
@@ -6427,27 +6426,27 @@
         <v>#N/A</v>
       </c>
       <c r="D88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J88" t="e">
@@ -6455,15 +6454,15 @@
         <v>#N/A</v>
       </c>
       <c r="K88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A88,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6473,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C89" t="e">
@@ -6481,27 +6480,27 @@
         <v>#N/A</v>
       </c>
       <c r="D89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J89" t="e">
@@ -6509,15 +6508,15 @@
         <v>#N/A</v>
       </c>
       <c r="K89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A89,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6527,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C90" t="e">
@@ -6535,27 +6534,27 @@
         <v>#N/A</v>
       </c>
       <c r="D90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J90" t="e">
@@ -6563,15 +6562,15 @@
         <v>#N/A</v>
       </c>
       <c r="K90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M90" t="e">
-        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A90,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6581,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="e">
@@ -6589,27 +6588,27 @@
         <v>#N/A</v>
       </c>
       <c r="D91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J91" t="e">
@@ -6617,15 +6616,15 @@
         <v>#N/A</v>
       </c>
       <c r="K91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M91" t="e">
-        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A91,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6635,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C92" t="e">
@@ -6643,27 +6642,27 @@
         <v>#N/A</v>
       </c>
       <c r="D92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J92" t="e">
@@ -6671,15 +6670,15 @@
         <v>#N/A</v>
       </c>
       <c r="K92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M92" t="e">
-        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A92,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6689,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C93" t="e">
@@ -6697,27 +6696,27 @@
         <v>#N/A</v>
       </c>
       <c r="D93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J93" t="e">
@@ -6725,15 +6724,15 @@
         <v>#N/A</v>
       </c>
       <c r="K93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A93,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6743,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C94" t="e">
@@ -6751,27 +6750,27 @@
         <v>#N/A</v>
       </c>
       <c r="D94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J94" t="e">
@@ -6779,15 +6778,15 @@
         <v>#N/A</v>
       </c>
       <c r="K94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M94" t="e">
-        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A94,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6797,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C95" t="e">
@@ -6805,27 +6804,27 @@
         <v>#N/A</v>
       </c>
       <c r="D95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J95" t="e">
@@ -6833,15 +6832,15 @@
         <v>#N/A</v>
       </c>
       <c r="K95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M95" t="e">
-        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A95,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6851,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C96" t="e">
@@ -6859,27 +6858,27 @@
         <v>#N/A</v>
       </c>
       <c r="D96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J96" t="e">
@@ -6887,15 +6886,15 @@
         <v>#N/A</v>
       </c>
       <c r="K96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M96" t="e">
-        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A96,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6905,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C97" t="e">
@@ -6913,27 +6912,27 @@
         <v>#N/A</v>
       </c>
       <c r="D97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J97" t="e">
@@ -6941,15 +6940,15 @@
         <v>#N/A</v>
       </c>
       <c r="K97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M97" t="e">
-        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A97,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6959,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C98" t="e">
@@ -6967,27 +6966,27 @@
         <v>#N/A</v>
       </c>
       <c r="D98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J98" t="e">
@@ -6995,15 +6994,15 @@
         <v>#N/A</v>
       </c>
       <c r="K98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M98" t="e">
-        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A98,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7013,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C99" t="e">
@@ -7021,27 +7020,27 @@
         <v>#N/A</v>
       </c>
       <c r="D99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J99" t="e">
@@ -7049,15 +7048,15 @@
         <v>#N/A</v>
       </c>
       <c r="K99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M99" t="e">
-        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A99,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7067,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C100" t="e">
@@ -7075,27 +7074,27 @@
         <v>#N/A</v>
       </c>
       <c r="D100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J100" t="e">
@@ -7103,15 +7102,15 @@
         <v>#N/A</v>
       </c>
       <c r="K100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M100" t="e">
-        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A100,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7121,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C101" t="e">
@@ -7129,27 +7128,27 @@
         <v>#N/A</v>
       </c>
       <c r="D101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J101" t="e">
@@ -7157,15 +7156,15 @@
         <v>#N/A</v>
       </c>
       <c r="K101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M101" t="e">
-        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A101,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7175,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C102" t="e">
@@ -7183,27 +7182,27 @@
         <v>#N/A</v>
       </c>
       <c r="D102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J102" t="e">
@@ -7211,15 +7210,15 @@
         <v>#N/A</v>
       </c>
       <c r="K102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M102" t="e">
-        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A102,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7229,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C103" t="e">
@@ -7237,27 +7236,27 @@
         <v>#N/A</v>
       </c>
       <c r="D103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J103" t="e">
@@ -7265,15 +7264,15 @@
         <v>#N/A</v>
       </c>
       <c r="K103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M103" t="e">
-        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A103,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7283,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C104" t="e">
@@ -7291,27 +7290,27 @@
         <v>#N/A</v>
       </c>
       <c r="D104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J104" t="e">
@@ -7319,15 +7318,15 @@
         <v>#N/A</v>
       </c>
       <c r="K104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M104" t="e">
-        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A104,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7337,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C105" t="e">
@@ -7345,27 +7344,27 @@
         <v>#N/A</v>
       </c>
       <c r="D105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J105" t="e">
@@ -7373,15 +7372,15 @@
         <v>#N/A</v>
       </c>
       <c r="K105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M105" t="e">
-        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A105,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7391,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C106" t="e">
@@ -7399,27 +7398,27 @@
         <v>#N/A</v>
       </c>
       <c r="D106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J106" t="e">
@@ -7427,15 +7426,15 @@
         <v>#N/A</v>
       </c>
       <c r="K106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M106" t="e">
-        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A106,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7445,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C107" t="e">
@@ -7453,27 +7452,27 @@
         <v>#N/A</v>
       </c>
       <c r="D107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J107" t="e">
@@ -7481,15 +7480,15 @@
         <v>#N/A</v>
       </c>
       <c r="K107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M107" t="e">
-        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A107,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7499,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C108" t="e">
@@ -7507,27 +7506,27 @@
         <v>#N/A</v>
       </c>
       <c r="D108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J108" t="e">
@@ -7535,15 +7534,15 @@
         <v>#N/A</v>
       </c>
       <c r="K108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M108" t="e">
-        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A108,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7553,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C109" t="e">
@@ -7561,27 +7560,27 @@
         <v>#N/A</v>
       </c>
       <c r="D109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J109" t="e">
@@ -7589,15 +7588,15 @@
         <v>#N/A</v>
       </c>
       <c r="K109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M109" t="e">
-        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A109,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7607,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C110" t="e">
@@ -7615,27 +7614,27 @@
         <v>#N/A</v>
       </c>
       <c r="D110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J110" t="e">
@@ -7643,15 +7642,15 @@
         <v>#N/A</v>
       </c>
       <c r="K110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M110" t="e">
-        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A110,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7661,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C111" t="e">
@@ -7669,27 +7668,27 @@
         <v>#N/A</v>
       </c>
       <c r="D111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J111" t="e">
@@ -7697,15 +7696,15 @@
         <v>#N/A</v>
       </c>
       <c r="K111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M111" t="e">
-        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A111,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7715,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C112" t="e">
@@ -7723,27 +7722,27 @@
         <v>#N/A</v>
       </c>
       <c r="D112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J112" t="e">
@@ -7751,15 +7750,15 @@
         <v>#N/A</v>
       </c>
       <c r="K112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M112" t="e">
-        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A112,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7769,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C113" t="e">
@@ -7777,27 +7776,27 @@
         <v>#N/A</v>
       </c>
       <c r="D113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J113" t="e">
@@ -7805,15 +7804,15 @@
         <v>#N/A</v>
       </c>
       <c r="K113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M113" t="e">
-        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A113,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7823,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C114" t="e">
@@ -7831,27 +7830,27 @@
         <v>#N/A</v>
       </c>
       <c r="D114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J114" t="e">
@@ -7859,15 +7858,15 @@
         <v>#N/A</v>
       </c>
       <c r="K114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M114" t="e">
-        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A114,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7877,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C115" t="e">
@@ -7885,27 +7884,27 @@
         <v>#N/A</v>
       </c>
       <c r="D115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J115" t="e">
@@ -7913,15 +7912,15 @@
         <v>#N/A</v>
       </c>
       <c r="K115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M115" t="e">
-        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A115,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7931,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C116" t="e">
@@ -7939,27 +7938,27 @@
         <v>#N/A</v>
       </c>
       <c r="D116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J116" t="e">
@@ -7967,15 +7966,15 @@
         <v>#N/A</v>
       </c>
       <c r="K116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M116" t="e">
-        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A116,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7985,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C117" t="e">
@@ -7993,27 +7992,27 @@
         <v>#N/A</v>
       </c>
       <c r="D117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J117" t="e">
@@ -8021,15 +8020,15 @@
         <v>#N/A</v>
       </c>
       <c r="K117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M117" t="e">
-        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A117,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8039,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C118" t="e">
@@ -8047,27 +8046,27 @@
         <v>#N/A</v>
       </c>
       <c r="D118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J118" t="e">
@@ -8075,15 +8074,15 @@
         <v>#N/A</v>
       </c>
       <c r="K118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M118" t="e">
-        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A118,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8093,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C119" t="e">
@@ -8101,27 +8100,27 @@
         <v>#N/A</v>
       </c>
       <c r="D119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J119" t="e">
@@ -8129,15 +8128,15 @@
         <v>#N/A</v>
       </c>
       <c r="K119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M119" t="e">
-        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A119,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8147,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C120" t="e">
@@ -8155,27 +8154,27 @@
         <v>#N/A</v>
       </c>
       <c r="D120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J120" t="e">
@@ -8183,15 +8182,15 @@
         <v>#N/A</v>
       </c>
       <c r="K120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M120" t="e">
-        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A120,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8201,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C121" t="e">
@@ -8209,27 +8208,27 @@
         <v>#N/A</v>
       </c>
       <c r="D121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J121" t="e">
@@ -8237,15 +8236,15 @@
         <v>#N/A</v>
       </c>
       <c r="K121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M121" t="e">
-        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A121,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8255,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C122" t="e">
@@ -8263,27 +8262,27 @@
         <v>#N/A</v>
       </c>
       <c r="D122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J122" t="e">
@@ -8291,15 +8290,15 @@
         <v>#N/A</v>
       </c>
       <c r="K122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M122" t="e">
-        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A122,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8309,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C123" t="e">
@@ -8317,27 +8316,27 @@
         <v>#N/A</v>
       </c>
       <c r="D123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J123" t="e">
@@ -8345,15 +8344,15 @@
         <v>#N/A</v>
       </c>
       <c r="K123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M123" t="e">
-        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A123,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8363,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C124" t="e">
@@ -8371,27 +8370,27 @@
         <v>#N/A</v>
       </c>
       <c r="D124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J124" t="e">
@@ -8399,15 +8398,15 @@
         <v>#N/A</v>
       </c>
       <c r="K124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M124" t="e">
-        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A124,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8417,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C125" t="e">
@@ -8425,27 +8424,27 @@
         <v>#N/A</v>
       </c>
       <c r="D125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J125" t="e">
@@ -8453,15 +8452,15 @@
         <v>#N/A</v>
       </c>
       <c r="K125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M125" t="e">
-        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A125,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8471,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C126" t="e">
@@ -8479,27 +8478,27 @@
         <v>#N/A</v>
       </c>
       <c r="D126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J126" t="e">
@@ -8507,15 +8506,15 @@
         <v>#N/A</v>
       </c>
       <c r="K126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M126" t="e">
-        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A126,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8525,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C127" t="e">
@@ -8533,27 +8532,27 @@
         <v>#N/A</v>
       </c>
       <c r="D127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J127" t="e">
@@ -8561,15 +8560,15 @@
         <v>#N/A</v>
       </c>
       <c r="K127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M127" t="e">
-        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A127,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8579,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C128" t="e">
@@ -8587,27 +8586,27 @@
         <v>#N/A</v>
       </c>
       <c r="D128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J128" t="e">
@@ -8615,15 +8614,15 @@
         <v>#N/A</v>
       </c>
       <c r="K128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M128" t="e">
-        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A128,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8633,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C129" t="e">
@@ -8641,27 +8640,27 @@
         <v>#N/A</v>
       </c>
       <c r="D129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J129" t="e">
@@ -8669,15 +8668,15 @@
         <v>#N/A</v>
       </c>
       <c r="K129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M129" t="e">
-        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A129,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8687,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C130" t="e">
@@ -8695,27 +8694,27 @@
         <v>#N/A</v>
       </c>
       <c r="D130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J130" t="e">
@@ -8723,15 +8722,15 @@
         <v>#N/A</v>
       </c>
       <c r="K130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M130" t="e">
-        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A130,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8741,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C131" t="e">
@@ -8749,27 +8748,27 @@
         <v>#N/A</v>
       </c>
       <c r="D131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J131" t="e">
@@ -8777,15 +8776,15 @@
         <v>#N/A</v>
       </c>
       <c r="K131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M131" t="e">
-        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A131,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8795,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C132" t="e">
@@ -8803,27 +8802,27 @@
         <v>#N/A</v>
       </c>
       <c r="D132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J132" t="e">
@@ -8831,15 +8830,15 @@
         <v>#N/A</v>
       </c>
       <c r="K132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M132" t="e">
-        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A132,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8849,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C133" t="e">
@@ -8857,27 +8856,27 @@
         <v>#N/A</v>
       </c>
       <c r="D133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J133" t="e">
@@ -8885,15 +8884,15 @@
         <v>#N/A</v>
       </c>
       <c r="K133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M133" t="e">
-        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A133,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8903,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C134" t="e">
@@ -8911,27 +8910,27 @@
         <v>#N/A</v>
       </c>
       <c r="D134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J134" t="e">
@@ -8939,15 +8938,15 @@
         <v>#N/A</v>
       </c>
       <c r="K134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M134" t="e">
-        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A134,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8957,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C135" t="e">
@@ -8965,27 +8964,27 @@
         <v>#N/A</v>
       </c>
       <c r="D135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J135" t="e">
@@ -8993,15 +8992,15 @@
         <v>#N/A</v>
       </c>
       <c r="K135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M135" t="e">
-        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A135,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9011,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C136" t="e">
@@ -9019,27 +9018,27 @@
         <v>#N/A</v>
       </c>
       <c r="D136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J136" t="e">
@@ -9047,15 +9046,15 @@
         <v>#N/A</v>
       </c>
       <c r="K136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M136" t="e">
-        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A136,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9065,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C137" t="e">
@@ -9073,27 +9072,27 @@
         <v>#N/A</v>
       </c>
       <c r="D137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J137" t="e">
@@ -9101,15 +9100,15 @@
         <v>#N/A</v>
       </c>
       <c r="K137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M137" t="e">
-        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A137,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9119,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C138" t="e">
@@ -9127,27 +9126,27 @@
         <v>#N/A</v>
       </c>
       <c r="D138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J138" t="e">
@@ -9155,15 +9154,15 @@
         <v>#N/A</v>
       </c>
       <c r="K138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M138" t="e">
-        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A138,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9173,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C139" t="e">
@@ -9181,27 +9180,27 @@
         <v>#N/A</v>
       </c>
       <c r="D139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J139" t="e">
@@ -9209,15 +9208,15 @@
         <v>#N/A</v>
       </c>
       <c r="K139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M139" t="e">
-        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A139,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9227,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C140" t="e">
@@ -9235,27 +9234,27 @@
         <v>#N/A</v>
       </c>
       <c r="D140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J140" t="e">
@@ -9263,15 +9262,15 @@
         <v>#N/A</v>
       </c>
       <c r="K140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M140" t="e">
-        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A140,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9281,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C141" t="e">
@@ -9289,27 +9288,27 @@
         <v>#N/A</v>
       </c>
       <c r="D141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J141" t="e">
@@ -9317,15 +9316,15 @@
         <v>#N/A</v>
       </c>
       <c r="K141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M141" t="e">
-        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A141,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9335,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C142" t="e">
@@ -9343,27 +9342,27 @@
         <v>#N/A</v>
       </c>
       <c r="D142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J142" t="e">
@@ -9371,15 +9370,15 @@
         <v>#N/A</v>
       </c>
       <c r="K142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M142" t="e">
-        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A142,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9389,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C143" t="e">
@@ -9397,27 +9396,27 @@
         <v>#N/A</v>
       </c>
       <c r="D143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J143" t="e">
@@ -9425,15 +9424,15 @@
         <v>#N/A</v>
       </c>
       <c r="K143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M143" t="e">
-        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A143,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9443,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C144" t="e">
@@ -9451,27 +9450,27 @@
         <v>#N/A</v>
       </c>
       <c r="D144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J144" t="e">
@@ -9479,15 +9478,15 @@
         <v>#N/A</v>
       </c>
       <c r="K144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M144" t="e">
-        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A144,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9497,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C145" t="e">
@@ -9505,27 +9504,27 @@
         <v>#N/A</v>
       </c>
       <c r="D145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J145" t="e">
@@ -9533,15 +9532,15 @@
         <v>#N/A</v>
       </c>
       <c r="K145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M145" t="e">
-        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A145,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9551,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C146" t="e">
@@ -9559,27 +9558,27 @@
         <v>#N/A</v>
       </c>
       <c r="D146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J146" t="e">
@@ -9587,15 +9586,15 @@
         <v>#N/A</v>
       </c>
       <c r="K146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M146" t="e">
-        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A146,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9605,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C147" t="e">
@@ -9613,27 +9612,27 @@
         <v>#N/A</v>
       </c>
       <c r="D147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J147" t="e">
@@ -9641,15 +9640,15 @@
         <v>#N/A</v>
       </c>
       <c r="K147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M147" t="e">
-        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A147,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9659,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C148" t="e">
@@ -9667,27 +9666,27 @@
         <v>#N/A</v>
       </c>
       <c r="D148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J148" t="e">
@@ -9695,15 +9694,15 @@
         <v>#N/A</v>
       </c>
       <c r="K148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M148" t="e">
-        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A148,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9713,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="B149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C149" t="e">
@@ -9721,27 +9720,27 @@
         <v>#N/A</v>
       </c>
       <c r="D149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J149" t="e">
@@ -9749,15 +9748,15 @@
         <v>#N/A</v>
       </c>
       <c r="K149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M149" t="e">
-        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A149,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9767,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C150" t="e">
@@ -9775,27 +9774,27 @@
         <v>#N/A</v>
       </c>
       <c r="D150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J150" t="e">
@@ -9803,15 +9802,15 @@
         <v>#N/A</v>
       </c>
       <c r="K150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M150" t="e">
-        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A150,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9821,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C151" t="e">
@@ -9829,27 +9828,27 @@
         <v>#N/A</v>
       </c>
       <c r="D151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J151" t="e">
@@ -9857,15 +9856,15 @@
         <v>#N/A</v>
       </c>
       <c r="K151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M151" t="e">
-        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A151,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9875,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C152" t="e">
@@ -9883,27 +9882,27 @@
         <v>#N/A</v>
       </c>
       <c r="D152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J152" t="e">
@@ -9911,15 +9910,15 @@
         <v>#N/A</v>
       </c>
       <c r="K152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M152" t="e">
-        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A152,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9929,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C153" t="e">
@@ -9937,27 +9936,27 @@
         <v>#N/A</v>
       </c>
       <c r="D153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J153" t="e">
@@ -9965,15 +9964,15 @@
         <v>#N/A</v>
       </c>
       <c r="K153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M153" t="e">
-        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A153,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9983,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C154" t="e">
@@ -9991,27 +9990,27 @@
         <v>#N/A</v>
       </c>
       <c r="D154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J154" t="e">
@@ -10019,15 +10018,15 @@
         <v>#N/A</v>
       </c>
       <c r="K154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M154" t="e">
-        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A154,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10037,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="B155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C155" t="e">
@@ -10045,27 +10044,27 @@
         <v>#N/A</v>
       </c>
       <c r="D155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J155" t="e">
@@ -10073,15 +10072,15 @@
         <v>#N/A</v>
       </c>
       <c r="K155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M155" t="e">
-        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A155,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10091,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C156" t="e">
@@ -10099,27 +10098,27 @@
         <v>#N/A</v>
       </c>
       <c r="D156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J156" t="e">
@@ -10127,15 +10126,15 @@
         <v>#N/A</v>
       </c>
       <c r="K156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M156" t="e">
-        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A156,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10145,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="B157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(B$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C157" t="e">
@@ -10153,27 +10152,27 @@
         <v>#N/A</v>
       </c>
       <c r="D157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(D$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(E$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(F$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(G$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(H$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(I$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J157" t="e">
@@ -10181,15 +10180,15 @@
         <v>#N/A</v>
       </c>
       <c r="K157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(K$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(L$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M157" t="e">
-        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$25,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
+        <f>INDEX(player_data,MATCH($A157,'Raw Data'!$B$1:$B$157,0),MATCH(M$1,'Raw Data'!$A$1:$R$1,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10199,7 +10198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10716,7 +10715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Leaderboard_Template.xlsx
+++ b/Leaderboard_Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\Programming\golf_pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F39DF-BFC1-4DF8-AD12-5EFEFFBAA9AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3780" windowWidth="25845" windowHeight="17190"/>
+    <workbookView xWindow="47025" yWindow="5505" windowWidth="27165" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Live" sheetId="5" r:id="rId1"/>
     <sheet name="Results" sheetId="1" r:id="rId2"/>
-    <sheet name="Clean Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Clean Data" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Raw Data" sheetId="3" r:id="rId4"/>
     <sheet name="Details" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -38,7 +39,7 @@
     <definedName name="tid">Details!$B$1</definedName>
     <definedName name="tname">Details!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -374,20 +375,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+#0_);[Red]\-#0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -456,24 +449,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -778,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +783,7 @@
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -807,18 +797,18 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="5" t="str">
         <f>tname&amp;" -- "&amp;YEAR(start_date)</f>
         <v>Valero Texas Open -- 2019</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -849,272 +839,272 @@
       <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,I$1,0))</f>
-        <v>-271</v>
+      <c r="I4" s="4">
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,I$1,0))</f>
+        <v>-55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,I$1,0))</f>
-        <v>-648</v>
+      <c r="I5" s="4">
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,I$1,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,I$1,0))</f>
-        <v>-1059</v>
+      <c r="I6" s="4">
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,I$1,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1125,7 +1115,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1136,7 +1126,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1147,12 +1137,854 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1164,11 +1996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,22 +2035,22 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="5" t="str">
         <f>tname&amp;" -- "&amp;YEAR(start_date)</f>
         <v>Valero Texas Open -- 2019</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1261,42 +2093,42 @@
       <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+      <c r="I4" s="4">
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,I$1,0))-(par_total*6)</f>
         <v>-13</v>
       </c>
-      <c r="J4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
+      <c r="J4" s="4">
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,J$1,0))-(par_total*6)</f>
         <v>-12</v>
       </c>
-      <c r="K4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
+      <c r="K4" s="4">
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,K$1,0))-(par_total*6)</f>
         <v>-11</v>
       </c>
-      <c r="L4" s="5">
-        <f>SUM(VLOOKUP($B4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F4,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G4,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
+      <c r="L4" s="4">
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,L$1,0))-(par_total*6)</f>
         <v>-235</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" ref="M4:M6" si="0">+SUM(I4:L4)</f>
         <v>-271</v>
       </c>
@@ -1305,42 +2137,42 @@
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
+      <c r="I5" s="4">
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,I$1,0))-(par_total*6)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,J$1,0))-(par_total*6)</f>
         <v>-6</v>
       </c>
-      <c r="K5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
+      <c r="K5" s="4">
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,K$1,0))-(par_total*6)</f>
         <v>-210</v>
       </c>
-      <c r="L5" s="5">
-        <f>SUM(VLOOKUP($B5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F5,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G5,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
+      <c r="L5" s="4">
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,L$1,0))-(par_total*6)</f>
         <v>-432</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>-648</v>
       </c>
@@ -1349,300 +2181,300 @@
       <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,I$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,I$1,0))-(par_total*6)</f>
+      <c r="I6" s="4">
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,I$1,0))-(par_total*6)</f>
         <v>-28</v>
       </c>
-      <c r="J6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,J$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,J$1,0))-(par_total*6)</f>
+      <c r="J6" s="4">
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,J$1,0))-(par_total*6)</f>
         <v>-167</v>
       </c>
-      <c r="K6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,K$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,K$1,0))-(par_total*6)</f>
+      <c r="K6" s="4">
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,K$1,0))-(par_total*6)</f>
         <v>-432</v>
       </c>
-      <c r="L6" s="5">
-        <f>SUM(VLOOKUP($B6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($C6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($D6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($E6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($F6,'Clean Data'!$A$2:$M$157,L$1,0),VLOOKUP($G6,'Clean Data'!$A$2:$M$157,L$1,0))-(par_total*6)</f>
+      <c r="L6" s="4">
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,L$1,0))-(par_total*6)</f>
         <v>-432</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>-1059</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1653,11 +2485,11 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1668,11 +2500,11 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1683,20 +2515,1166 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1708,11 +3686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10198,11 +12176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10709,13 +12687,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Leaderboard_Template.xlsx
+++ b/Leaderboard_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\Programming\golf_pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F39DF-BFC1-4DF8-AD12-5EFEFFBAA9AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47025" yWindow="5505" windowWidth="27165" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47025" yWindow="5505" windowWidth="27165" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Live" sheetId="5" r:id="rId1"/>
@@ -38,8 +37,9 @@
     <definedName name="start_date">Details!$B$3</definedName>
     <definedName name="tid">Details!$B$1</definedName>
     <definedName name="tname">Details!$B$2</definedName>
+    <definedName name="update_time">Details!$B$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>Thursday Total</t>
   </si>
@@ -371,15 +371,22 @@
   <si>
     <t>Best</t>
   </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>As of:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\+#0_);[Red]\-#0"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +406,13 @@
       <b/>
       <u/>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -449,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,6 +481,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,11 +786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A24"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +801,7 @@
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -796,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="str">
         <f>tname&amp;" -- "&amp;YEAR(start_date)</f>
         <v>Valero Texas Open -- 2019</v>
@@ -809,8 +827,11 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -834,8 +855,12 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="7">
+        <f>update_time</f>
+        <v>43567.381585648152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
@@ -863,7 +888,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
@@ -891,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
@@ -919,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -930,7 +955,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -941,7 +966,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -952,7 +977,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -963,7 +988,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -974,7 +999,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -985,7 +1010,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -996,7 +1021,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1007,7 +1032,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1018,7 +1043,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1996,11 +2021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,16 +2046,20 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1">
+        <f>IF(current_round=1,5,6)</f>
         <v>6</v>
       </c>
       <c r="J1" s="1">
+        <f>IF(current_round=2,5,7)</f>
         <v>7</v>
       </c>
       <c r="K1" s="1">
+        <f>IF(current_round=3,5,8)</f>
         <v>8</v>
       </c>
       <c r="L1" s="1">
-        <v>9</v>
+        <f>IF(current_round=4,5,9)</f>
+        <v>5</v>
       </c>
       <c r="M1" s="1"/>
     </row>
@@ -2113,24 +2142,24 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4">
-        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,I$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$M$157,I$1,0))-IF(AND((I$1-current_round)&lt;5,I$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-13</v>
       </c>
       <c r="J4" s="4">
-        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,J$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$M$157,J$1,0))-IF(AND((J$1-current_round)&lt;5,J$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-12</v>
       </c>
       <c r="K4" s="4">
-        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,K$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$M$157,K$1,0))-IF(AND((K$1-current_round)&lt;5,K$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-11</v>
       </c>
       <c r="L4" s="4">
-        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$R$157,L$1,0))-(par_total*6)</f>
-        <v>-235</v>
+        <f>SUM(VLOOKUP($B4,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($C4,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($D4,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($E4,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($F4,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($G4,'Raw Data'!$B$2:$M$157,L$1,0))-IF(AND((L$1-current_round)&lt;5,L$1&lt;&gt;5),(6*par_total),0)</f>
+        <v>-19</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:M6" si="0">+SUM(I4:L4)</f>
-        <v>-271</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2157,24 +2186,24 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4">
-        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,I$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$M$157,I$1,0))-IF(AND((I$1-current_round)&lt;5,I$1&lt;&gt;5),(6*par_total),0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,J$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$M$157,J$1,0))-IF(AND((J$1-current_round)&lt;5,J$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-6</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,K$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$M$157,K$1,0))-IF(AND((K$1-current_round)&lt;5,K$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-210</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$R$157,L$1,0))-(par_total*6)</f>
-        <v>-432</v>
+        <f>SUM(VLOOKUP($B5,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($C5,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($D5,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($E5,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($F5,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($G5,'Raw Data'!$B$2:$M$157,L$1,0))-IF(AND((L$1-current_round)&lt;5,L$1&lt;&gt;5),(6*par_total),0)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>-648</v>
+        <v>-216</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2201,24 +2230,24 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4">
-        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,I$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,I$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$M$157,I$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$M$157,I$1,0))-IF(AND((I$1-current_round)&lt;5,I$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-28</v>
       </c>
       <c r="J6" s="4">
-        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,J$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,J$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$M$157,J$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$M$157,J$1,0))-IF(AND((J$1-current_round)&lt;5,J$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-167</v>
       </c>
       <c r="K6" s="4">
-        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,K$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,K$1,0))-(par_total*6)</f>
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$M$157,K$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$M$157,K$1,0))-IF(AND((K$1-current_round)&lt;5,K$1&lt;&gt;5),(6*par_total),0)</f>
         <v>-432</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$R$157,L$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$R$157,L$1,0))-(par_total*6)</f>
-        <v>-432</v>
+        <f>SUM(VLOOKUP($B6,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($C6,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($D6,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($E6,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($F6,'Raw Data'!$B$2:$M$157,L$1,0),VLOOKUP($G6,'Raw Data'!$B$2:$M$157,L$1,0))-IF(AND((L$1-current_round)&lt;5,L$1&lt;&gt;5),(6*par_total),0)</f>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>-1059</v>
+        <v>-627</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12176,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12694,11 +12723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,6 +12863,14 @@
         <v>78</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43567.381585648152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
